--- a/data/research_metrics_2019-2022.xlsx
+++ b/data/research_metrics_2019-2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosscunning/Projects/research_metrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD69271E-F671-B840-89E4-CD8B55507F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C147BF4-BF7C-1543-93E8-600DD3E7E775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="1033">
   <si>
     <t>ID</t>
   </si>
@@ -3019,6 +3019,111 @@
   </si>
   <si>
     <t>Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions</t>
+  </si>
+  <si>
+    <t>Conservation Research</t>
+  </si>
+  <si>
+    <t>Taught two graduate school lectures on larval dispersal and marine conserservation on location at FAU</t>
+  </si>
+  <si>
+    <t>Marine invertebrates</t>
+  </si>
+  <si>
+    <t>Sustainable fisheries;Climate change;Habitat and species loss</t>
+  </si>
+  <si>
+    <t>Traveled to and facilitated University of Bahamas marine experience for 11 Bahamians</t>
+  </si>
+  <si>
+    <t>Habitat and species loss;Climate change;Sustainable fisheries</t>
+  </si>
+  <si>
+    <t>Conch tracking</t>
+  </si>
+  <si>
+    <t>Presentation to St Lawrence class</t>
+  </si>
+  <si>
+    <t>Lecture for depaul graduate students</t>
+  </si>
+  <si>
+    <t>Lecture for depaul undergraduate class</t>
+  </si>
+  <si>
+    <t>Interview for magazine</t>
+  </si>
+  <si>
+    <t>Conch Tracking</t>
+  </si>
+  <si>
+    <t>Benthic Ecology Meeting: Chaired a session and presented</t>
+  </si>
+  <si>
+    <t>Lecture and activity for ACCA</t>
+  </si>
+  <si>
+    <t>Teen programs career chat</t>
+  </si>
+  <si>
+    <t>Orientation for field volunteers</t>
+  </si>
+  <si>
+    <t>Conchtracking, FLK</t>
+  </si>
+  <si>
+    <t>Presented research to mixture of visiting graduate students from FAU @ Shedd</t>
+  </si>
+  <si>
+    <t>Coral Reef II - led trip</t>
+  </si>
+  <si>
+    <t>Animal Health</t>
+  </si>
+  <si>
+    <t>Goldstein, J. S., Gutzler, B. C., Kough, A. S., Carloni, J. T., Dayton, A. M., Guenther, C. M., … Watson, W. H., III. (2025). A Review of American Lobster (Homarus americanus) Research Since 2000. Reviews in Fisheries Science &amp; Aquaculture, 1–56. https://doi.org/10.1080/23308249.2025.2514440</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/23308249.2025.2514440?scroll=top&amp;needAccess=true</t>
+  </si>
+  <si>
+    <t>Third author on review funded by Seagrant funds we received</t>
+  </si>
+  <si>
+    <t>Panel on Minorities in SCUBA Science @ Field Museum</t>
+  </si>
+  <si>
+    <t>Afterschoolmatters: Gave a career chat and equipment demonstration to the cohort</t>
+  </si>
+  <si>
+    <t>Iguana research in Bahamas</t>
+  </si>
+  <si>
+    <t>Iguanas</t>
+  </si>
+  <si>
+    <t>Habitat and species loss</t>
+  </si>
+  <si>
+    <t>Mentored two University of The Bahamas students on the iguana trip.</t>
+  </si>
+  <si>
+    <t>Shedd Annual meeting conservation research update</t>
+  </si>
+  <si>
+    <t>Freshwater mussels;Marine invertebrates</t>
+  </si>
+  <si>
+    <t>https://abc7chicago.com/post/reverse-red-day-morton-arboretum-shedd-aquarium-chicago-botanic-garden-among-wildlife-groups-saving-endangered-species/15879382/?utm_source=wordfly&amp;utm_medium=email&amp;utm_campaign=SheddTidings-(Feb.11%2C2025)&amp;utm_content=version_A&amp;source=</t>
+  </si>
+  <si>
+    <t>ABC7 News Discussion about Reverse the Red Day and Shedd's Species Pledges</t>
+  </si>
+  <si>
+    <t>Marine invertebrates;Coral;Freshwater mussels;Iguanas</t>
+  </si>
+  <si>
+    <t>Presented to the IUCN SSC Global Trees Specialist Group about ISG governance.</t>
   </si>
 </sst>
 </file>
@@ -3072,8 +3177,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3139,8 +3244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O759" totalsRowShown="0">
-  <autoFilter ref="A1:O759" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O783" totalsRowShown="0">
+  <autoFilter ref="A1:O783" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="13"/>
@@ -3459,10 +3564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O759"/>
+  <dimension ref="A1:O783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C731" workbookViewId="0">
-      <selection activeCell="I740" sqref="I740"/>
+    <sheetView tabSelected="1" topLeftCell="A745" workbookViewId="0">
+      <selection activeCell="G760" sqref="G760:G783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3945,7 +4050,6 @@
       <c r="I16" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -6558,7 +6662,7 @@
       <c r="I110" t="s">
         <v>991</v>
       </c>
-      <c r="J110" s="5" t="s">
+      <c r="J110" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6587,7 +6691,7 @@
       <c r="I111" t="s">
         <v>992</v>
       </c>
-      <c r="J111" s="5" t="s">
+      <c r="J111" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6616,7 +6720,7 @@
       <c r="I112" t="s">
         <v>993</v>
       </c>
-      <c r="J112" s="5" t="s">
+      <c r="J112" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7560,7 +7664,7 @@
       <c r="I146" t="s">
         <v>994</v>
       </c>
-      <c r="J146" s="5" t="s">
+      <c r="J146" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7589,7 +7693,7 @@
       <c r="I147" t="s">
         <v>995</v>
       </c>
-      <c r="J147" s="5" t="s">
+      <c r="J147" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7963,7 +8067,7 @@
       <c r="I160" t="s">
         <v>996</v>
       </c>
-      <c r="J160" s="5" t="s">
+      <c r="J160" s="4" t="s">
         <v>240</v>
       </c>
       <c r="M160" t="s">
@@ -11426,7 +11530,7 @@
       <c r="I282" t="s">
         <v>997</v>
       </c>
-      <c r="J282" s="5" t="s">
+      <c r="J282" s="4" t="s">
         <v>386</v>
       </c>
       <c r="M282" t="s">
@@ -24613,7 +24717,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>755</v>
       </c>
@@ -24642,7 +24746,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>756</v>
       </c>
@@ -24671,7 +24775,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>757</v>
       </c>
@@ -24700,7 +24804,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>758</v>
       </c>
@@ -24726,7 +24830,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>759</v>
       </c>
@@ -24752,7 +24856,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>760</v>
       </c>
@@ -24784,7 +24888,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>761</v>
       </c>
@@ -24811,6 +24915,903 @@
       </c>
       <c r="M759" t="s">
         <v>990</v>
+      </c>
+    </row>
+    <row r="760" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>771</v>
+      </c>
+      <c r="B760" s="5">
+        <v>45747.620694444442</v>
+      </c>
+      <c r="C760" s="5">
+        <v>45747.621539351851</v>
+      </c>
+      <c r="D760" t="s">
+        <v>129</v>
+      </c>
+      <c r="E760" t="s">
+        <v>130</v>
+      </c>
+      <c r="F760" t="s">
+        <v>998</v>
+      </c>
+      <c r="G760" s="2">
+        <v>45728</v>
+      </c>
+      <c r="H760" t="s">
+        <v>450</v>
+      </c>
+      <c r="M760" t="s">
+        <v>999</v>
+      </c>
+      <c r="N760" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O760" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="761" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>772</v>
+      </c>
+      <c r="B761" s="5">
+        <v>45747.621562499997</v>
+      </c>
+      <c r="C761" s="5">
+        <v>45747.626712962963</v>
+      </c>
+      <c r="D761" t="s">
+        <v>129</v>
+      </c>
+      <c r="E761" t="s">
+        <v>130</v>
+      </c>
+      <c r="F761" t="s">
+        <v>998</v>
+      </c>
+      <c r="G761" s="2">
+        <v>45735</v>
+      </c>
+      <c r="H761" t="s">
+        <v>73</v>
+      </c>
+      <c r="L761">
+        <v>8</v>
+      </c>
+      <c r="M761" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N761" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O761" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="762" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>773</v>
+      </c>
+      <c r="B762" s="5">
+        <v>45747.626747685186</v>
+      </c>
+      <c r="C762" s="5">
+        <v>45747.627129629633</v>
+      </c>
+      <c r="D762" t="s">
+        <v>129</v>
+      </c>
+      <c r="E762" t="s">
+        <v>130</v>
+      </c>
+      <c r="F762" t="s">
+        <v>998</v>
+      </c>
+      <c r="G762" s="2">
+        <v>45722</v>
+      </c>
+      <c r="H762" t="s">
+        <v>73</v>
+      </c>
+      <c r="L762">
+        <v>8</v>
+      </c>
+      <c r="M762" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N762" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O762" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="763" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>774</v>
+      </c>
+      <c r="B763" s="5">
+        <v>45747.627152777779</v>
+      </c>
+      <c r="C763" s="5">
+        <v>45747.628472222219</v>
+      </c>
+      <c r="D763" t="s">
+        <v>129</v>
+      </c>
+      <c r="E763" t="s">
+        <v>130</v>
+      </c>
+      <c r="F763" t="s">
+        <v>998</v>
+      </c>
+      <c r="G763" s="2">
+        <v>45692</v>
+      </c>
+      <c r="H763" t="s">
+        <v>75</v>
+      </c>
+      <c r="K763">
+        <v>40</v>
+      </c>
+      <c r="L763">
+        <v>35</v>
+      </c>
+      <c r="M763" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N763" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O763" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="764" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>775</v>
+      </c>
+      <c r="B764" s="5">
+        <v>45747.628599537034</v>
+      </c>
+      <c r="C764" s="5">
+        <v>45747.628993055558</v>
+      </c>
+      <c r="D764" t="s">
+        <v>129</v>
+      </c>
+      <c r="E764" t="s">
+        <v>130</v>
+      </c>
+      <c r="F764" t="s">
+        <v>998</v>
+      </c>
+      <c r="G764" s="2">
+        <v>45684</v>
+      </c>
+      <c r="H764" t="s">
+        <v>450</v>
+      </c>
+      <c r="M764" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N764" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O764" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="765" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>776</v>
+      </c>
+      <c r="B765" s="5">
+        <v>45747.629016203704</v>
+      </c>
+      <c r="C765" s="5">
+        <v>45747.629537037035</v>
+      </c>
+      <c r="D765" t="s">
+        <v>129</v>
+      </c>
+      <c r="E765" t="s">
+        <v>130</v>
+      </c>
+      <c r="F765" t="s">
+        <v>998</v>
+      </c>
+      <c r="G765" s="2">
+        <v>45689</v>
+      </c>
+      <c r="H765" t="s">
+        <v>450</v>
+      </c>
+      <c r="M765" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N765" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O765" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="766" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>777</v>
+      </c>
+      <c r="B766" s="5">
+        <v>45747.629907407405</v>
+      </c>
+      <c r="C766" s="5">
+        <v>45747.630162037036</v>
+      </c>
+      <c r="D766" t="s">
+        <v>129</v>
+      </c>
+      <c r="E766" t="s">
+        <v>130</v>
+      </c>
+      <c r="F766" t="s">
+        <v>998</v>
+      </c>
+      <c r="G766" s="2">
+        <v>45667</v>
+      </c>
+      <c r="H766" t="s">
+        <v>56</v>
+      </c>
+      <c r="M766" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N766" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O766" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="767" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>778</v>
+      </c>
+      <c r="B767" s="5">
+        <v>45747.630173611113</v>
+      </c>
+      <c r="C767" s="5">
+        <v>45747.630624999998</v>
+      </c>
+      <c r="D767" t="s">
+        <v>129</v>
+      </c>
+      <c r="E767" t="s">
+        <v>130</v>
+      </c>
+      <c r="F767" t="s">
+        <v>998</v>
+      </c>
+      <c r="G767" s="2">
+        <v>45659</v>
+      </c>
+      <c r="H767" t="s">
+        <v>73</v>
+      </c>
+      <c r="L767">
+        <v>5</v>
+      </c>
+      <c r="M767" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N767" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O767" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="768" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>779</v>
+      </c>
+      <c r="B768" s="5">
+        <v>45848.490381944444</v>
+      </c>
+      <c r="C768" s="5">
+        <v>45848.492708333331</v>
+      </c>
+      <c r="D768" t="s">
+        <v>129</v>
+      </c>
+      <c r="E768" t="s">
+        <v>130</v>
+      </c>
+      <c r="F768" t="s">
+        <v>998</v>
+      </c>
+      <c r="G768" s="2">
+        <v>45750</v>
+      </c>
+      <c r="H768" t="s">
+        <v>450</v>
+      </c>
+      <c r="M768" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N768" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O768" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="769" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>780</v>
+      </c>
+      <c r="B769" s="5">
+        <v>45848.492731481485</v>
+      </c>
+      <c r="C769" s="5">
+        <v>45848.49318287037</v>
+      </c>
+      <c r="D769" t="s">
+        <v>129</v>
+      </c>
+      <c r="E769" t="s">
+        <v>130</v>
+      </c>
+      <c r="F769" t="s">
+        <v>998</v>
+      </c>
+      <c r="G769" s="2">
+        <v>45759</v>
+      </c>
+      <c r="H769" t="s">
+        <v>450</v>
+      </c>
+      <c r="M769" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N769" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O769" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="770" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>781</v>
+      </c>
+      <c r="B770" s="5">
+        <v>45848.493206018517</v>
+      </c>
+      <c r="C770" s="5">
+        <v>45848.493819444448</v>
+      </c>
+      <c r="D770" t="s">
+        <v>129</v>
+      </c>
+      <c r="E770" t="s">
+        <v>130</v>
+      </c>
+      <c r="F770" t="s">
+        <v>998</v>
+      </c>
+      <c r="G770" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H770" t="s">
+        <v>75</v>
+      </c>
+      <c r="K770">
+        <v>2</v>
+      </c>
+      <c r="L770">
+        <v>8</v>
+      </c>
+      <c r="M770" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N770" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O770" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="771" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>782</v>
+      </c>
+      <c r="B771" s="5">
+        <v>45848.493842592594</v>
+      </c>
+      <c r="C771" s="5">
+        <v>45848.494513888887</v>
+      </c>
+      <c r="D771" t="s">
+        <v>129</v>
+      </c>
+      <c r="E771" t="s">
+        <v>130</v>
+      </c>
+      <c r="F771" t="s">
+        <v>998</v>
+      </c>
+      <c r="G771" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H771" t="s">
+        <v>75</v>
+      </c>
+      <c r="K771">
+        <v>2</v>
+      </c>
+      <c r="L771">
+        <v>3</v>
+      </c>
+      <c r="M771" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N771" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O771" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="772" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>783</v>
+      </c>
+      <c r="B772" s="5">
+        <v>45848.494537037041</v>
+      </c>
+      <c r="C772" s="5">
+        <v>45848.49523148148</v>
+      </c>
+      <c r="D772" t="s">
+        <v>129</v>
+      </c>
+      <c r="E772" t="s">
+        <v>130</v>
+      </c>
+      <c r="F772" t="s">
+        <v>998</v>
+      </c>
+      <c r="G772" s="2">
+        <v>45770</v>
+      </c>
+      <c r="H772" t="s">
+        <v>73</v>
+      </c>
+      <c r="L772">
+        <v>7</v>
+      </c>
+      <c r="M772" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N772" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O772" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="773" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>784</v>
+      </c>
+      <c r="B773" s="5">
+        <v>45848.495335648149</v>
+      </c>
+      <c r="C773" s="5">
+        <v>45848.496655092589</v>
+      </c>
+      <c r="D773" t="s">
+        <v>129</v>
+      </c>
+      <c r="E773" t="s">
+        <v>130</v>
+      </c>
+      <c r="F773" t="s">
+        <v>998</v>
+      </c>
+      <c r="G773" s="2">
+        <v>45814</v>
+      </c>
+      <c r="H773" t="s">
+        <v>450</v>
+      </c>
+      <c r="M773" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N773" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O773" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="774" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>785</v>
+      </c>
+      <c r="B774" s="5">
+        <v>45848.496666666666</v>
+      </c>
+      <c r="C774" s="5">
+        <v>45848.497164351851</v>
+      </c>
+      <c r="D774" t="s">
+        <v>129</v>
+      </c>
+      <c r="E774" t="s">
+        <v>130</v>
+      </c>
+      <c r="F774" t="s">
+        <v>998</v>
+      </c>
+      <c r="G774" s="2">
+        <v>45817</v>
+      </c>
+      <c r="H774" t="s">
+        <v>73</v>
+      </c>
+      <c r="L774">
+        <v>13</v>
+      </c>
+      <c r="M774" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N774" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O774" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="775" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>786</v>
+      </c>
+      <c r="B775" s="5">
+        <v>45848.497175925928</v>
+      </c>
+      <c r="C775" s="5">
+        <v>45848.498761574076</v>
+      </c>
+      <c r="D775" t="s">
+        <v>129</v>
+      </c>
+      <c r="E775" t="s">
+        <v>130</v>
+      </c>
+      <c r="F775" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G775" s="2">
+        <v>45824</v>
+      </c>
+      <c r="H775" t="s">
+        <v>34</v>
+      </c>
+      <c r="I775" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J775" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M775" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N775" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O775" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="776" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>787</v>
+      </c>
+      <c r="B776" s="5">
+        <v>45848.498796296299</v>
+      </c>
+      <c r="C776" s="5">
+        <v>45848.4999537037</v>
+      </c>
+      <c r="D776" t="s">
+        <v>129</v>
+      </c>
+      <c r="E776" t="s">
+        <v>130</v>
+      </c>
+      <c r="F776" t="s">
+        <v>998</v>
+      </c>
+      <c r="G776" s="2">
+        <v>45835</v>
+      </c>
+      <c r="H776" t="s">
+        <v>75</v>
+      </c>
+      <c r="K776">
+        <v>3</v>
+      </c>
+      <c r="L776">
+        <v>8</v>
+      </c>
+      <c r="M776" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N776" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O776" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="777" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>788</v>
+      </c>
+      <c r="B777" s="5">
+        <v>45848.500034722223</v>
+      </c>
+      <c r="C777" s="5">
+        <v>45848.500543981485</v>
+      </c>
+      <c r="D777" t="s">
+        <v>129</v>
+      </c>
+      <c r="E777" t="s">
+        <v>130</v>
+      </c>
+      <c r="F777" t="s">
+        <v>998</v>
+      </c>
+      <c r="G777" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H777" t="s">
+        <v>450</v>
+      </c>
+      <c r="M777" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N777" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O777" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="778" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>765</v>
+      </c>
+      <c r="B778" s="5">
+        <v>45475.588877314818</v>
+      </c>
+      <c r="C778" s="5">
+        <v>45475.589456018519</v>
+      </c>
+      <c r="D778" t="s">
+        <v>32</v>
+      </c>
+      <c r="E778" t="s">
+        <v>33</v>
+      </c>
+      <c r="F778" t="s">
+        <v>998</v>
+      </c>
+      <c r="G778" s="2">
+        <v>45471</v>
+      </c>
+      <c r="H778" t="s">
+        <v>73</v>
+      </c>
+      <c r="L778">
+        <v>9</v>
+      </c>
+      <c r="M778" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N778" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O778" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="779" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>766</v>
+      </c>
+      <c r="B779" s="5">
+        <v>45475.589641203704</v>
+      </c>
+      <c r="C779" s="5">
+        <v>45475.591539351852</v>
+      </c>
+      <c r="D779" t="s">
+        <v>32</v>
+      </c>
+      <c r="E779" t="s">
+        <v>33</v>
+      </c>
+      <c r="F779" t="s">
+        <v>998</v>
+      </c>
+      <c r="G779" s="2">
+        <v>45442</v>
+      </c>
+      <c r="H779" t="s">
+        <v>75</v>
+      </c>
+      <c r="K779">
+        <v>144</v>
+      </c>
+      <c r="L779">
+        <v>9</v>
+      </c>
+      <c r="M779" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N779" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O779" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="780" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>767</v>
+      </c>
+      <c r="B780" s="5">
+        <v>45698.690937500003</v>
+      </c>
+      <c r="C780" s="5">
+        <v>45698.691701388889</v>
+      </c>
+      <c r="D780" t="s">
+        <v>32</v>
+      </c>
+      <c r="E780" t="s">
+        <v>33</v>
+      </c>
+      <c r="F780" t="s">
+        <v>998</v>
+      </c>
+      <c r="G780" s="2">
+        <v>45686</v>
+      </c>
+      <c r="H780" t="s">
+        <v>450</v>
+      </c>
+      <c r="M780" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N780" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O780" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="781" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>768</v>
+      </c>
+      <c r="B781" s="5">
+        <v>45700.522210648145</v>
+      </c>
+      <c r="C781" s="5">
+        <v>45700.524641203701</v>
+      </c>
+      <c r="D781" t="s">
+        <v>32</v>
+      </c>
+      <c r="E781" t="s">
+        <v>33</v>
+      </c>
+      <c r="F781" t="s">
+        <v>998</v>
+      </c>
+      <c r="G781" s="2">
+        <v>45695</v>
+      </c>
+      <c r="H781" t="s">
+        <v>56</v>
+      </c>
+      <c r="J781" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M781" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N781" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O781" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="782" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>769</v>
+      </c>
+      <c r="B782" s="5">
+        <v>45734.590648148151</v>
+      </c>
+      <c r="C782" s="5">
+        <v>45734.591481481482</v>
+      </c>
+      <c r="D782" t="s">
+        <v>32</v>
+      </c>
+      <c r="E782" t="s">
+        <v>33</v>
+      </c>
+      <c r="F782" t="s">
+        <v>998</v>
+      </c>
+      <c r="G782" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H782" t="s">
+        <v>450</v>
+      </c>
+      <c r="M782" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N782" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O782" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="783" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>770</v>
+      </c>
+      <c r="B783" s="5">
+        <v>45734.593854166669</v>
+      </c>
+      <c r="C783" s="5">
+        <v>45734.594282407408</v>
+      </c>
+      <c r="D783" t="s">
+        <v>32</v>
+      </c>
+      <c r="E783" t="s">
+        <v>33</v>
+      </c>
+      <c r="F783" t="s">
+        <v>998</v>
+      </c>
+      <c r="G783" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H783" t="s">
+        <v>450</v>
+      </c>
+      <c r="M783" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N783" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O783" t="s">
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
